--- a/src/main/webapp/WEB-INF/template/ExcelTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/template/ExcelTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-24\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B442F-D073-41D6-92E1-695F8E80F32C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E10B7-307A-451B-8A9C-A7B5DDD6DF9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="270" windowWidth="16305" windowHeight="15330" xr2:uid="{F40E7EA8-957D-4009-9AA6-433D94197997}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F40E7EA8-957D-4009-9AA6-433D94197997}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>PC-24</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D22DA469-78CE-4923-9DCF-E2899F4F7B55}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{D22DA469-78CE-4923-9DCF-E2899F4F7B55}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B7996737-9347-4CAE-A0A3-330402134272}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B7996737-9347-4CAE-A0A3-330402134272}">
       <text>
         <r>
           <rPr>
@@ -92,27 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>LES_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LES_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_SUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>${lesPayList.paySum}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +111,30 @@
   </si>
   <si>
     <t>${lesPayList.payId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODEMAKER 월별 강의 매출 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,12 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.9"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -173,16 +171,53 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -205,27 +240,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - 강조색2" xfId="2" builtinId="34"/>
+    <cellStyle name="40% - 강조색1" xfId="1" builtinId="31"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B57D3D-B3E9-470F-9A91-85885CC758DE}">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,44 +643,54 @@
     <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2"/>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
